--- a/6) Апрель/912/912 Системеное программирование_апрель.xlsx
+++ b/6) Апрель/912/912 Системеное программирование_апрель.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\6) Апрель\912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC5D399-4A22-40EB-9FB3-2EC903B3A526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6485FB81-3482-4951-8631-A067EF28490F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1515" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>ФИО</t>
   </si>
@@ -479,10 +479,10 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1028,12 @@
       <c r="K31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="L31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
